--- a/metric_learning_bicycle/experiments_ml.xlsx
+++ b/metric_learning_bicycle/experiments_ml.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/metric_learning_bicycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271585F8-A7DB-BE46-9498-7EE3F2DACAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B08213-CAA5-934E-8581-9A23053B199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="500" windowWidth="30160" windowHeight="17360" xr2:uid="{F453AF3D-8374-804C-B63E-8684ABA88DBC}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="30860" windowHeight="14920" xr2:uid="{F453AF3D-8374-804C-B63E-8684ABA88DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaderBoard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Round</t>
     <phoneticPr fontId="1"/>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>ml-baseline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ml-baseline2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -255,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +289,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,14 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598F0E48-0E7C-6A47-B14E-8F6F7A14956C}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -784,6 +798,50 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="8">
         <v>6.898148148148148E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="21">
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12">
+        <v>512</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="12">
+        <v>512</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="12">
+        <v>45</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
+        <v>0.7611</v>
+      </c>
+      <c r="P3">
+        <v>0.75070000000000003</v>
+      </c>
+      <c r="R3" s="11">
+        <v>4.3750000000000004E-3</v>
       </c>
     </row>
   </sheetData>

--- a/metric_learning_bicycle/experiments_ml.xlsx
+++ b/metric_learning_bicycle/experiments_ml.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/metric_learning_bicycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B08213-CAA5-934E-8581-9A23053B199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BDF6C-28BA-774E-9C14-987E31966A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="500" windowWidth="30860" windowHeight="14920" xr2:uid="{F453AF3D-8374-804C-B63E-8684ABA88DBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="LeaderBoard" sheetId="1" r:id="rId1"/>
-    <sheet name="ml-baseline" sheetId="2" r:id="rId2"/>
+    <sheet name="Experiment_Round" sheetId="3" r:id="rId1"/>
+    <sheet name="LeaderBoard" sheetId="1" r:id="rId2"/>
+    <sheet name="ml-baseline" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Round</t>
     <phoneticPr fontId="1"/>
@@ -124,6 +125,48 @@
   </si>
   <si>
     <t>ml-baseline2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Experiment Round</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Theme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Findings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Backborn（スケールアップ前）と学習率をエポック数を上げ実験</t>
+    <rPh sb="19" eb="22">
+      <t xml:space="preserve">ガクシュウリツノ </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">アゲ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tf_efficientnetv2_b3 &amp; learning_rate=0.001 で距離学習パラメータやデータ拡張の実験をすることに決定</t>
+    <rPh sb="44" eb="48">
+      <t xml:space="preserve">キョリガクシュウ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">ケッテイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベースライン。HTデフォルトで実験</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -177,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,13 +296,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,14 +351,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,10 +760,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD22722-F4D6-964D-A961-DE7BAB59D184}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="3" width="65.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="42">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598F0E48-0E7C-6A47-B14E-8F6F7A14956C}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -804,34 +933,34 @@
       <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3">
         <v>512</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3">
         <v>1E-3</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3">
         <v>512</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3">
         <v>0.1</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3">
         <v>45</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" t="s">
         <v>19</v>
       </c>
       <c r="O3">
@@ -850,7 +979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC0D80-7E9C-B748-8DEC-8FF2D15E90AC}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/metric_learning_bicycle/experiments_ml.xlsx
+++ b/metric_learning_bicycle/experiments_ml.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/metric_learning_bicycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BDF6C-28BA-774E-9C14-987E31966A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77686E9B-A011-9B4B-9165-A90F2FB1F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="500" windowWidth="30860" windowHeight="14920" xr2:uid="{F453AF3D-8374-804C-B63E-8684ABA88DBC}"/>
+    <workbookView xWindow="35840" yWindow="4940" windowWidth="31640" windowHeight="16660" activeTab="2" xr2:uid="{F453AF3D-8374-804C-B63E-8684ABA88DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_Round" sheetId="3" r:id="rId1"/>
-    <sheet name="LeaderBoard" sheetId="1" r:id="rId2"/>
-    <sheet name="ml-baseline" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="LeaderBoard" sheetId="1" r:id="rId3"/>
+    <sheet name="0" sheetId="2" r:id="rId4"/>
+    <sheet name="1_3" sheetId="5" r:id="rId5"/>
+    <sheet name="2_1" sheetId="6" r:id="rId6"/>
+    <sheet name="3_4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t>Round</t>
     <phoneticPr fontId="1"/>
@@ -167,6 +171,268 @@
     <rPh sb="15" eb="17">
       <t xml:space="preserve">ジッケン </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r1_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>bicycle_image_metric_learning_v2</t>
+  </si>
+  <si>
+    <t>Image Metric Learning</t>
+  </si>
+  <si>
+    <t>mAP</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:18</t>
+  </si>
+  <si>
+    <t>r1_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:17</t>
+  </si>
+  <si>
+    <t>r1_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:24</t>
+  </si>
+  <si>
+    <t>bicycle_image_metric_learning_v2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r2_augmentations_strategy_Medium</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:28</t>
+  </si>
+  <si>
+    <t>r2_augmentations_strategy_Soft</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:20</t>
+  </si>
+  <si>
+    <t>r2_augmentations_strategy_Hard</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:26</t>
+  </si>
+  <si>
+    <t>ID=0と同じ</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.1_arcface_scale_45.0</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:27</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.1_arcface_scale_30.0</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.1_arcface_scale_60.0</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:22</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.3_arcface_scale_45.0</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:23</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.5_arcface_scale_45.0</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:17Runtime: 00:06:17</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.5_arcface_scale_60.0</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:21</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.5_arcface_scale_30.0</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.3_arcface_scale_30.0</t>
+  </si>
+  <si>
+    <t>r3_arcface_margin_0.3_arcface_scale_60.0</t>
+  </si>
+  <si>
+    <t>Runtime: 00:06:25</t>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>3_9</t>
+  </si>
+  <si>
+    <t>マージンはやや大きめ、スケールは大きくしすぎるとダメ</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">オオキメ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">オオキクシス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r4_backbone_resnet50_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>Runtime: 00:05:37</t>
+  </si>
+  <si>
+    <t>r4_backbone_eca_nfnet_l2_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>Training error</t>
+  </si>
+  <si>
+    <t>r4_backbone_eca_nfnet_l2_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>Runtime: 00:13:34</t>
+  </si>
+  <si>
+    <t>r4_backbone_resnet50_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>Runtime: 00:05:33</t>
+  </si>
+  <si>
+    <t>r4_backbone_efficientnetv2_rw_m_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>Runtime: 00:11:39</t>
+  </si>
+  <si>
+    <t>r4_backbone_resnet50_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>Runtime: 00:05:30</t>
+  </si>
+  <si>
+    <t>r4_backbone_eca_nfnet_l2_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>Runtime: 00:13:21Runtime: 00:13:21</t>
+  </si>
+  <si>
+    <t>r4_backbone_efficientnetv2_rw_m_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>Runtime: 00:11:22Runtime: 00:11:22</t>
+  </si>
+  <si>
+    <t>r4_backbone_efficientnetv2_rw_m_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>Runtime: 00:11:38</t>
+  </si>
+  <si>
+    <t>00:13:2100:13:21</t>
+  </si>
+  <si>
+    <t>00:11:2200:11:22</t>
+  </si>
+  <si>
+    <t>r4_backbone_resnet50_learning_rate_0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resnet50</t>
+  </si>
+  <si>
+    <t>r4_backbone_efficientnetv2_rw_m_learning_rate_0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>efficientnetv2_rw_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r4_backbone_eca_nfnet_l2_learning_rate_0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eca_nfnet_l2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -220,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -314,30 +580,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -377,6 +637,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,6 +738,153 @@
         <a:xfrm>
           <a:off x="952500" y="508000"/>
           <a:ext cx="7772400" cy="6417252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0638E6-F65C-1B6E-91D7-FF619DF7257B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="508000"/>
+          <a:ext cx="7772400" cy="6403352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB21104-BAF5-6A2C-DE63-EF88B8671BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="508000"/>
+          <a:ext cx="7772400" cy="6422582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F9C8AC-6910-803D-7095-6F2D49BC91B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="508000"/>
+          <a:ext cx="7772400" cy="6396406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD22722-F4D6-964D-A961-DE7BAB59D184}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -773,33 +1225,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="15">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="42">
-      <c r="A3" s="17">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -810,167 +1262,476 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598F0E48-0E7C-6A47-B14E-8F6F7A14956C}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876F0975-0D11-B341-8EEC-CC02FE6222B4}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I21" sqref="A21:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="42">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="G1">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="H1" s="14">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="6">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7">
-        <v>512</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7">
-        <v>512</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>45</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0.73880000000000001</v>
-      </c>
-      <c r="P2" s="7">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="G3">
         <v>0.73070000000000002</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8">
-        <v>6.898148148148148E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="21">
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>512</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>1E-3</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>512</v>
-      </c>
-      <c r="L3">
-        <v>0.1</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="6">
+        <v>4.4791666666666669E-3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="6">
+        <v>4.4791666666666669E-3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.4617</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="6">
+        <v>4.4212962962962964E-3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="G13">
         <v>0.7611</v>
       </c>
-      <c r="P3">
-        <v>0.75070000000000003</v>
-      </c>
-      <c r="R3" s="11">
-        <v>4.3750000000000004E-3</v>
+      <c r="H13" s="14"/>
+      <c r="I13" s="6">
+        <v>4.43287037037037E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="6">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="6">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>0.311</v>
+      </c>
+      <c r="G16">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="6">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="6">
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="6">
+        <v>4.4560185185185189E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>0.6895</v>
+      </c>
+      <c r="G21">
+        <v>0.67130000000000001</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="6">
+        <v>3.9004629629629628E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="I22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="G23">
+        <v>0.81</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="6">
+        <v>9.4212962962962957E-3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="6">
+        <v>3.8541666666666668E-3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="G25">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="6">
+        <v>8.0902777777777778E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="6">
+        <v>3.8194444444444443E-3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="G27">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G29">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="6">
+        <v>8.0787037037037043E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -980,11 +1741,1505 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598F0E48-0E7C-6A47-B14E-8F6F7A14956C}">
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="42">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="21">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>512</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>512</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3">
+        <v>6.898148148148148E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
+        <v>16</v>
+      </c>
+      <c r="F3" s="15">
+        <v>512</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="I3" s="15">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="15">
+        <v>512</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>45</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.7611</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0.75070000000000003</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="17">
+        <v>4.3750000000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>512</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>1E-4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>512</v>
+      </c>
+      <c r="L4">
+        <v>0.1</v>
+      </c>
+      <c r="M4">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="P4">
+        <v>0.65539999999999998</v>
+      </c>
+      <c r="R4" s="6">
+        <v>4.3750000000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>512</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>512</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>0.73109999999999997</v>
+      </c>
+      <c r="P5">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="R5" s="6">
+        <v>4.363425925925926E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="15">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15">
+        <v>512</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="I6" s="15">
+        <v>5</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="15">
+        <v>512</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="15">
+        <v>45</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="17">
+        <v>4.4444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>1E-3</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>512</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="6">
+        <v>4.3981481481481484E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>512</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>1E-3</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8">
+        <v>512</v>
+      </c>
+      <c r="L8">
+        <v>0.1</v>
+      </c>
+      <c r="M8">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="6">
+        <v>4.4907407407407405E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
+        <v>16</v>
+      </c>
+      <c r="F9" s="15">
+        <v>512</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="I9" s="15">
+        <v>5</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="15">
+        <v>512</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="15">
+        <v>45</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="17">
+        <v>4.4675925925925924E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>512</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>1E-3</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>512</v>
+      </c>
+      <c r="L10">
+        <v>0.1</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.76910000000000001</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="6">
+        <v>4.4791666666666669E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="19">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>512</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>1E-3</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>512</v>
+      </c>
+      <c r="L11">
+        <v>0.1</v>
+      </c>
+      <c r="M11">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="6">
+        <v>4.4791666666666669E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="19">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>512</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>1E-3</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>512</v>
+      </c>
+      <c r="L12">
+        <v>0.1</v>
+      </c>
+      <c r="M12">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="P12">
+        <v>0.4617</v>
+      </c>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="6">
+        <v>4.4212962962962964E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="19">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>512</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>1E-3</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>512</v>
+      </c>
+      <c r="L13">
+        <v>0.3</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="P13">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="6">
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="19">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>512</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>1E-3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>512</v>
+      </c>
+      <c r="L14">
+        <v>0.3</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="P14">
+        <v>0.7611</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="6">
+        <v>4.43287037037037E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="19">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>512</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>1E-3</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>512</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+      <c r="M15">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="P15">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="6">
+        <v>4.4560185185185189E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="19">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>512</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>1E-3</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>512</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>0.311</v>
+      </c>
+      <c r="P16">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="6">
+        <v>4.409722222222222E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="19">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>512</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>1E-3</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>512</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="P17">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="6">
+        <v>4.363425925925926E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="20">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <v>16</v>
+      </c>
+      <c r="F18" s="15">
+        <v>512</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="I18" s="15">
+        <v>5</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="15">
+        <v>512</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="15">
+        <v>60</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="17">
+        <v>4.409722222222222E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>512</v>
+      </c>
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19">
+        <v>1E-4</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>512</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="P19">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="6">
+        <v>3.8194444444444443E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="19">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>512</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>512</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="O20">
+        <v>0.6895</v>
+      </c>
+      <c r="P20">
+        <v>0.67130000000000001</v>
+      </c>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="6">
+        <v>3.9004629629629628E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="19">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>512</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>512</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="O21">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="6">
+        <v>3.8541666666666668E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="19">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>512</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>512</v>
+      </c>
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="P22">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="6">
+        <v>8.0787037037037043E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="19">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>512</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>512</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="P23">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="6">
+        <v>8.0902777777777778E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="19">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>512</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>512</v>
+      </c>
+      <c r="L24">
+        <v>0.3</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="P24">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="6">
+        <v>7.8935185185185185E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="19">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>512</v>
+      </c>
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1E-4</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>512</v>
+      </c>
+      <c r="L25">
+        <v>0.3</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="P25">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="6">
+        <v>9.2708333333333341E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="19">
+        <v>4</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21">
+        <v>16</v>
+      </c>
+      <c r="F26" s="21">
+        <v>512</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I26" s="21">
+        <v>5</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="21">
+        <v>512</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="M26" s="21">
+        <v>30</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="P26" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="R26" s="23">
+        <v>9.4212962962962957E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="20">
+        <v>4</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15">
+        <v>16</v>
+      </c>
+      <c r="F27" s="15">
+        <v>512</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="15">
+        <v>512</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="15">
+        <v>30</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="E28" s="19">
+        <v>8</v>
+      </c>
+      <c r="F28" s="19">
+        <v>736</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28">
+        <v>1E-4</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>512</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+      <c r="M28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="E29" s="19">
+        <v>8</v>
+      </c>
+      <c r="F29" s="19">
+        <v>736</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>512</v>
+      </c>
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+      <c r="M29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="E30" s="19">
+        <v>8</v>
+      </c>
+      <c r="F30" s="19">
+        <v>736</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>512</v>
+      </c>
+      <c r="L30">
+        <v>0.3</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EC0D80-7E9C-B748-8DEC-8FF2D15E90AC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B931C4-8447-EE40-B55D-D56B2B97FFE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4CFE6B-5C9A-0347-A3BF-AA9CBADE4BA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D723D3C-B969-EE4C-B845-E70E82F11508}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/metric_learning_bicycle/experiments_ml.xlsx
+++ b/metric_learning_bicycle/experiments_ml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/metric_learning_bicycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F0F55-B5D7-DC4F-8879-AA1A3910F825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AEFEDE-A49F-1B49-B3E4-3FD7EB475216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="3440" windowWidth="31800" windowHeight="18160" activeTab="1" xr2:uid="{F453AF3D-8374-804C-B63E-8684ABA88DBC}"/>
   </bookViews>
@@ -392,22 +392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>m=0.1, s=30とm=0.3, s=45も良いが、ベストのm=0.3, s=30を採用。マージンはやや大きめ、スケールは大きくしすぎるとダメな傾向</t>
-    <rPh sb="24" eb="25">
-      <t xml:space="preserve">ヨイガ </t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t xml:space="preserve">サイヨウ </t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>_x0000__x0018__x0001__x0004_,</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t/>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ベースライン（tf_efficientnetv2_b3）。HTデフォルトで実験</t>
     <rPh sb="17" eb="19">
       <t xml:space="preserve">ジッケン </t>
@@ -415,16 +399,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>モデルのスケールアップの実験。resnet50,efficientnetv2_rw_m,eca_nfnet_l2を試す</t>
-    <rPh sb="12" eb="14">
-      <t xml:space="preserve">ジッケン </t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t xml:space="preserve">タメス </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eca_nfnet_l2がベスト。モデルスケールアップの効果あり</t>
     <rPh sb="28" eb="30">
       <t xml:space="preserve">コウカ </t>
@@ -432,19 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像サイズのスケールアップの実験。512から736に上げてみる</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガゾウサイズノ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">ジッケン </t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t xml:space="preserve">アゲテミル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画像サイズのスケールアップも効果あるように見える。なお、メモリの関係上バッチサイズが8となってしまう</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ガゾウサイズノ </t>
@@ -455,19 +416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認のための繰り返し実験</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カクニンノタメノ </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">クリカエシ </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ジッケン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>r5_learning_rate_0.0003.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,6 +438,70 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再現性の確認のための、繰り返し実験</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">サイゲンセイ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カクニンノタメノ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">クリカエシ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m=0.1, s=30とm=0.3, s=45も良いが、ベストのm=0.3, s=30を採用。マージンはやや大きめが良く、スケールは大きくしすぎるとダメな傾向</t>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ヨイガ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">サイヨウ </t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t xml:space="preserve">ヨク </t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>_x0000__x0018__x0001__x0004_,</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルのスケールアップの実験。tf_efficientnetv2_b3より大きな、resnet50,efficientnetv2_rw_m,eca_nfnet_l2を試す。なお、学習率も再調整</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">オオキナ </t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t xml:space="preserve">タメス </t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t xml:space="preserve">ガクシュウリツモ </t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t xml:space="preserve">サイチョウセイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズのスケールアップの実験。512から736に上げてみる。なお、学習率も再調整</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガゾウサイズノ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">アゲテミル </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -749,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,18 +810,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -825,19 +831,13 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>87</v>
@@ -1444,10 +1444,10 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1455,43 +1455,43 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="42">
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>94</v>
+      <c r="B6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42">
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1504,7 +1504,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1518,113 +1518,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="43" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="34" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>0</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32">
         <v>16</v>
       </c>
-      <c r="F2" s="36">
-        <v>512</v>
-      </c>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="32">
+        <v>512</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="32">
         <v>1E-3</v>
       </c>
-      <c r="I2" s="36">
-        <v>5</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="32">
+        <v>5</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="36">
-        <v>512</v>
-      </c>
-      <c r="L2" s="36">
+      <c r="K2" s="32">
+        <v>512</v>
+      </c>
+      <c r="L2" s="32">
         <v>0.1</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="32">
         <v>45</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="36">
+      <c r="O2" s="32">
         <v>0.73880000000000001</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="32">
         <v>0.73070000000000002</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="38">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="34">
         <v>6.898148148148148E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="21" hidden="1">
-      <c r="A3" s="20"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
         <v>21</v>
@@ -1667,7 +1667,7 @@
         <v>0.75070000000000003</v>
       </c>
       <c r="Q3" s="12"/>
-      <c r="R3" s="24">
+      <c r="R3" s="22">
         <v>4.3750000000000004E-3</v>
       </c>
     </row>
@@ -1675,51 +1675,49 @@
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
+      <c r="E4">
         <v>16</v>
       </c>
-      <c r="F4" s="17">
-        <v>512</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4">
+        <v>512</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4">
         <v>1E-4</v>
       </c>
-      <c r="I4" s="17">
-        <v>5</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="17">
-        <v>512</v>
-      </c>
-      <c r="L4" s="17">
+      <c r="K4">
+        <v>512</v>
+      </c>
+      <c r="L4">
         <v>0.1</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4">
         <v>45</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4">
         <v>0.66390000000000005</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4">
         <v>0.65539999999999998</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="26">
+      <c r="R4" s="24">
         <v>4.3750000000000004E-3</v>
       </c>
     </row>
@@ -1727,59 +1725,57 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17">
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="F5" s="17">
-        <v>512</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5">
+        <v>512</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I5" s="17">
-        <v>5</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="17">
-        <v>512</v>
-      </c>
-      <c r="L5" s="17">
+      <c r="K5">
+        <v>512</v>
+      </c>
+      <c r="L5">
         <v>0.1</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5">
         <v>45</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5">
         <v>0.73109999999999997</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5">
         <v>0.72209999999999996</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="26">
+      <c r="R5" s="24">
         <v>4.363425925925926E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1827,7 +1823,7 @@
       <c r="Q6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6" s="22">
         <v>4.4444444444444444E-3</v>
       </c>
     </row>
@@ -1835,55 +1831,55 @@
       <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7">
         <v>16</v>
       </c>
-      <c r="F7" s="17">
-        <v>512</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7">
+        <v>512</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7">
         <v>1E-3</v>
       </c>
-      <c r="I7" s="17">
-        <v>5</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="17">
-        <v>512</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="K7">
+        <v>512</v>
+      </c>
+      <c r="L7">
         <v>0.1</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7">
         <v>45</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7">
         <v>0.75700000000000001</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7">
         <v>0.75900000000000001</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="24">
         <v>4.3981481481481484E-3</v>
       </c>
     </row>
@@ -1891,59 +1887,58 @@
       <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
+      <c r="E8">
         <v>16</v>
       </c>
-      <c r="F8" s="17">
-        <v>512</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="F8">
+        <v>512</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8">
         <v>1E-3</v>
       </c>
-      <c r="I8" s="17">
-        <v>5</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="17">
-        <v>512</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="K8">
+        <v>512</v>
+      </c>
+      <c r="L8">
         <v>0.1</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8">
         <v>45</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8">
         <v>0.73380000000000001</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8">
         <v>0.73329999999999995</v>
       </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="26">
+      <c r="Q8" s="25"/>
+      <c r="R8" s="24">
         <v>4.4907407407407405E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -1987,7 +1982,7 @@
         <v>0.31080000000000002</v>
       </c>
       <c r="Q9" s="14"/>
-      <c r="R9" s="24">
+      <c r="R9" s="22">
         <v>4.4675925925925924E-3</v>
       </c>
     </row>
@@ -1995,51 +1990,50 @@
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17">
+      <c r="E10">
         <v>16</v>
       </c>
-      <c r="F10" s="17">
-        <v>512</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="F10">
+        <v>512</v>
+      </c>
+      <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10">
         <v>1E-3</v>
       </c>
-      <c r="I10" s="17">
-        <v>5</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="17">
-        <v>512</v>
-      </c>
-      <c r="L10" s="17">
+      <c r="K10">
+        <v>512</v>
+      </c>
+      <c r="L10">
         <v>0.1</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10">
         <v>30</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10">
         <v>0.77370000000000005</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10">
         <v>0.76910000000000001</v>
       </c>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="26">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="24">
         <v>4.4791666666666669E-3</v>
       </c>
     </row>
@@ -2047,53 +2041,53 @@
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11" s="17">
-        <v>512</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F11">
+        <v>512</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11">
         <v>1E-3</v>
       </c>
-      <c r="I11" s="17">
-        <v>5</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="17">
-        <v>512</v>
-      </c>
-      <c r="L11" s="17">
+      <c r="K11">
+        <v>512</v>
+      </c>
+      <c r="L11">
         <v>0.1</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11">
         <v>45</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11">
         <v>0.74050000000000005</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11">
         <v>0.73839999999999995</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="26">
+      <c r="Q11" s="25"/>
+      <c r="R11" s="24">
         <v>4.4791666666666669E-3</v>
       </c>
     </row>
@@ -2101,51 +2095,50 @@
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17">
+      <c r="E12">
         <v>16</v>
       </c>
-      <c r="F12" s="17">
-        <v>512</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12">
+        <v>512</v>
+      </c>
+      <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12">
         <v>1E-3</v>
       </c>
-      <c r="I12" s="17">
-        <v>5</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="17">
-        <v>512</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="K12">
+        <v>512</v>
+      </c>
+      <c r="L12">
         <v>0.1</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12">
         <v>60</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12">
         <v>0.48070000000000002</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12">
         <v>0.4617</v>
       </c>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="26">
+      <c r="Q12" s="25"/>
+      <c r="R12" s="24">
         <v>4.4212962962962964E-3</v>
       </c>
     </row>
@@ -2153,53 +2146,52 @@
       <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
+      <c r="E13">
         <v>16</v>
       </c>
-      <c r="F13" s="17">
-        <v>512</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="F13">
+        <v>512</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13">
         <v>1E-3</v>
       </c>
-      <c r="I13" s="17">
-        <v>5</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="17">
-        <v>512</v>
-      </c>
-      <c r="L13" s="17">
+      <c r="K13">
+        <v>512</v>
+      </c>
+      <c r="L13">
         <v>0.3</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13">
         <v>30</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13">
         <v>0.78159999999999996</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13">
         <v>0.77429999999999999</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="24">
         <v>4.4444444444444444E-3</v>
       </c>
     </row>
@@ -2207,51 +2199,50 @@
       <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17">
+      <c r="E14">
         <v>16</v>
       </c>
-      <c r="F14" s="17">
-        <v>512</v>
-      </c>
-      <c r="G14" s="17" t="s">
+      <c r="F14">
+        <v>512</v>
+      </c>
+      <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14">
         <v>1E-3</v>
       </c>
-      <c r="I14" s="17">
-        <v>5</v>
-      </c>
-      <c r="J14" s="17" t="s">
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="17">
-        <v>512</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14">
+        <v>512</v>
+      </c>
+      <c r="L14">
         <v>0.3</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14">
         <v>45</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14">
         <v>0.76829999999999998</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14">
         <v>0.7611</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="26">
+      <c r="Q14" s="25"/>
+      <c r="R14" s="24">
         <v>4.43287037037037E-3</v>
       </c>
     </row>
@@ -2259,51 +2250,50 @@
       <c r="A15" s="10">
         <v>3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17">
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="F15" s="17">
-        <v>512</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="F15">
+        <v>512</v>
+      </c>
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15">
         <v>1E-3</v>
       </c>
-      <c r="I15" s="17">
-        <v>5</v>
-      </c>
-      <c r="J15" s="17" t="s">
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="17">
-        <v>512</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15">
+        <v>512</v>
+      </c>
+      <c r="L15">
         <v>0.3</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15">
         <v>60</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15">
         <v>0.34520000000000001</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15">
         <v>0.32740000000000002</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="26">
+      <c r="Q15" s="25"/>
+      <c r="R15" s="24">
         <v>4.4560185185185189E-3</v>
       </c>
     </row>
@@ -2311,51 +2301,50 @@
       <c r="A16" s="10">
         <v>3</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17">
+      <c r="E16">
         <v>16</v>
       </c>
-      <c r="F16" s="17">
-        <v>512</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="F16">
+        <v>512</v>
+      </c>
+      <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16">
         <v>1E-3</v>
       </c>
-      <c r="I16" s="17">
-        <v>5</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="17">
-        <v>512</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="K16">
+        <v>512</v>
+      </c>
+      <c r="L16">
         <v>0.5</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16">
         <v>30</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="N16" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16">
         <v>0.311</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16">
         <v>0.28760000000000002</v>
       </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="26">
+      <c r="Q16" s="25"/>
+      <c r="R16" s="24">
         <v>4.409722222222222E-3</v>
       </c>
     </row>
@@ -2363,59 +2352,58 @@
       <c r="A17" s="10">
         <v>3</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17">
+      <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" s="17">
-        <v>512</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="F17">
+        <v>512</v>
+      </c>
+      <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17">
         <v>1E-3</v>
       </c>
-      <c r="I17" s="17">
-        <v>5</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="17">
-        <v>512</v>
-      </c>
-      <c r="L17" s="17">
+      <c r="K17">
+        <v>512</v>
+      </c>
+      <c r="L17">
         <v>0.5</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17">
         <v>45</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17">
         <v>0.27139999999999997</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17">
         <v>0.26400000000000001</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="26">
+      <c r="Q17" s="25"/>
+      <c r="R17" s="24">
         <v>4.363425925925926E-3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>3</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2459,7 +2447,7 @@
         <v>0.25580000000000003</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="R18" s="24">
+      <c r="R18" s="22">
         <v>4.409722222222222E-3</v>
       </c>
     </row>
@@ -2467,49 +2455,47 @@
       <c r="A19" s="10">
         <v>4</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
+      <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" s="17">
-        <v>512</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19">
+        <v>512</v>
+      </c>
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19">
         <v>1E-4</v>
       </c>
-      <c r="I19" s="17">
-        <v>5</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="17">
-        <v>512</v>
-      </c>
-      <c r="L19" s="17">
+      <c r="K19">
+        <v>512</v>
+      </c>
+      <c r="L19">
         <v>0.3</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19">
         <v>30</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17">
+      <c r="O19">
         <v>0.59460000000000002</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19">
         <v>0.58309999999999995</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="26">
+      <c r="Q19" s="25"/>
+      <c r="R19" s="24">
         <v>3.8194444444444443E-3</v>
       </c>
     </row>
@@ -2517,49 +2503,47 @@
       <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17">
+      <c r="E20">
         <v>16</v>
       </c>
-      <c r="F20" s="17">
-        <v>512</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="F20">
+        <v>512</v>
+      </c>
+      <c r="G20" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I20" s="17">
-        <v>5</v>
-      </c>
-      <c r="J20" s="17" t="s">
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="17">
-        <v>512</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="K20">
+        <v>512</v>
+      </c>
+      <c r="L20">
         <v>0.3</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20">
         <v>30</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17">
+      <c r="O20">
         <v>0.6895</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20">
         <v>0.67130000000000001</v>
       </c>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="26">
+      <c r="Q20" s="25"/>
+      <c r="R20" s="24">
         <v>3.9004629629629628E-3</v>
       </c>
     </row>
@@ -2567,49 +2551,47 @@
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17">
+      <c r="E21">
         <v>16</v>
       </c>
-      <c r="F21" s="17">
-        <v>512</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="F21">
+        <v>512</v>
+      </c>
+      <c r="G21" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21">
         <v>1E-3</v>
       </c>
-      <c r="I21" s="17">
-        <v>5</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="17">
-        <v>512</v>
-      </c>
-      <c r="L21" s="17">
+      <c r="K21">
+        <v>512</v>
+      </c>
+      <c r="L21">
         <v>0.3</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21">
         <v>30</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17">
+      <c r="O21">
         <v>0.73499999999999999</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21">
         <v>0.74360000000000004</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="26">
+      <c r="Q21" s="25"/>
+      <c r="R21" s="24">
         <v>3.8541666666666668E-3</v>
       </c>
     </row>
@@ -2617,49 +2599,47 @@
       <c r="A22" s="10">
         <v>4</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17">
+      <c r="E22">
         <v>16</v>
       </c>
-      <c r="F22" s="17">
-        <v>512</v>
-      </c>
-      <c r="G22" s="17" t="s">
+      <c r="F22">
+        <v>512</v>
+      </c>
+      <c r="G22" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22">
         <v>1E-4</v>
       </c>
-      <c r="I22" s="17">
-        <v>5</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="17">
-        <v>512</v>
-      </c>
-      <c r="L22" s="17">
+      <c r="K22">
+        <v>512</v>
+      </c>
+      <c r="L22">
         <v>0.3</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22">
         <v>30</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17">
+      <c r="O22">
         <v>0.71399999999999997</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22">
         <v>0.70720000000000005</v>
       </c>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="26">
+      <c r="Q22" s="25"/>
+      <c r="R22" s="24">
         <v>8.0787037037037043E-3</v>
       </c>
     </row>
@@ -2667,49 +2647,47 @@
       <c r="A23" s="10">
         <v>4</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17">
+      <c r="E23">
         <v>16</v>
       </c>
-      <c r="F23" s="17">
-        <v>512</v>
-      </c>
-      <c r="G23" s="17" t="s">
+      <c r="F23">
+        <v>512</v>
+      </c>
+      <c r="G23" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I23" s="17">
-        <v>5</v>
-      </c>
-      <c r="J23" s="17" t="s">
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="17">
-        <v>512</v>
-      </c>
-      <c r="L23" s="17">
+      <c r="K23">
+        <v>512</v>
+      </c>
+      <c r="L23">
         <v>0.3</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23">
         <v>30</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17">
+      <c r="O23">
         <v>0.76690000000000003</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23">
         <v>0.76800000000000002</v>
       </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="26">
+      <c r="Q23" s="25"/>
+      <c r="R23" s="24">
         <v>8.0902777777777778E-3</v>
       </c>
     </row>
@@ -2717,49 +2695,47 @@
       <c r="A24" s="10">
         <v>4</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17">
+      <c r="E24">
         <v>16</v>
       </c>
-      <c r="F24" s="17">
-        <v>512</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="F24">
+        <v>512</v>
+      </c>
+      <c r="G24" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24">
         <v>1E-3</v>
       </c>
-      <c r="I24" s="17">
-        <v>5</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="17">
-        <v>512</v>
-      </c>
-      <c r="L24" s="17">
+      <c r="K24">
+        <v>512</v>
+      </c>
+      <c r="L24">
         <v>0.3</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24">
         <v>30</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17">
+      <c r="O24">
         <v>0.80549999999999999</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24">
         <v>0.80100000000000005</v>
       </c>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="26">
+      <c r="Q24" s="25"/>
+      <c r="R24" s="24">
         <v>7.8935185185185185E-3</v>
       </c>
     </row>
@@ -2767,49 +2743,47 @@
       <c r="A25" s="10">
         <v>4</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17">
+      <c r="E25">
         <v>16</v>
       </c>
-      <c r="F25" s="17">
-        <v>512</v>
-      </c>
-      <c r="G25" s="17" t="s">
+      <c r="F25">
+        <v>512</v>
+      </c>
+      <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25">
         <v>1E-4</v>
       </c>
-      <c r="I25" s="17">
-        <v>5</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="17">
-        <v>512</v>
-      </c>
-      <c r="L25" s="17">
+      <c r="K25">
+        <v>512</v>
+      </c>
+      <c r="L25">
         <v>0.3</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25">
         <v>30</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17">
+      <c r="O25">
         <v>0.78459999999999996</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25">
         <v>0.77739999999999998</v>
       </c>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="26">
+      <c r="Q25" s="25"/>
+      <c r="R25" s="24">
         <v>9.2708333333333341E-3</v>
       </c>
     </row>
@@ -2817,59 +2791,57 @@
       <c r="A26" s="10">
         <v>4</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17">
+      <c r="E26">
         <v>16</v>
       </c>
-      <c r="F26" s="17">
-        <v>512</v>
-      </c>
-      <c r="G26" s="17" t="s">
+      <c r="F26">
+        <v>512</v>
+      </c>
+      <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I26" s="17">
-        <v>5</v>
-      </c>
-      <c r="J26" s="17" t="s">
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="17">
-        <v>512</v>
-      </c>
-      <c r="L26" s="17">
+      <c r="K26">
+        <v>512</v>
+      </c>
+      <c r="L26">
         <v>0.3</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26">
         <v>30</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17">
+      <c r="O26">
         <v>0.81120000000000003</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26">
         <v>0.81</v>
       </c>
-      <c r="Q26" s="27" t="s">
+      <c r="Q26" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R26" s="26">
+      <c r="R26" s="24">
         <v>9.4212962962962957E-3</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="20">
+      <c r="A27" s="18">
         <v>4</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -2907,7 +2879,7 @@
       <c r="O27" s="14"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="21" t="s">
+      <c r="R27" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2915,7 +2887,7 @@
       <c r="A28" s="8">
         <v>5</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2965,59 +2937,57 @@
       <c r="A29" s="10">
         <v>5</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17">
+      <c r="E29">
         <v>8</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29">
         <v>736</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I29" s="17">
-        <v>5</v>
-      </c>
-      <c r="J29" s="17" t="s">
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="17">
-        <v>512</v>
-      </c>
-      <c r="L29" s="17">
+      <c r="K29">
+        <v>512</v>
+      </c>
+      <c r="L29">
         <v>0.3</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29">
         <v>30</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17">
+      <c r="O29">
         <v>0.82830000000000004</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29">
         <v>0.82779999999999998</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q29" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="24">
         <v>1.90625E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="20">
-        <v>5</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="18">
+        <v>5</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -3055,113 +3025,107 @@
       <c r="O30" s="14"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="21" t="s">
+      <c r="R30" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="21">
-      <c r="A31" s="28">
+      <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17">
+        <v>94</v>
+      </c>
+      <c r="E31">
         <v>8</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31">
         <v>736</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I31" s="17">
-        <v>5</v>
-      </c>
-      <c r="J31" s="17" t="s">
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="17">
-        <v>512</v>
-      </c>
-      <c r="L31" s="17">
+      <c r="K31">
+        <v>512</v>
+      </c>
+      <c r="L31">
         <v>0.3</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31">
         <v>30</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17">
+      <c r="O31">
         <v>0.81889999999999996</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31">
         <v>0.81810000000000005</v>
       </c>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="26">
+      <c r="R31" s="24">
         <v>1.9085648148148147E-2</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="21">
-      <c r="A32" s="28">
+      <c r="A32" s="10">
         <v>6</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17">
+        <v>94</v>
+      </c>
+      <c r="E32">
         <v>8</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32">
         <v>736</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I32" s="17">
-        <v>5</v>
-      </c>
-      <c r="J32" s="17" t="s">
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="17">
-        <v>512</v>
-      </c>
-      <c r="L32" s="17">
+      <c r="K32">
+        <v>512</v>
+      </c>
+      <c r="L32">
         <v>0.3</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32">
         <v>30</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17">
+      <c r="O32">
         <v>0.82369999999999999</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32">
         <v>0.82289999999999996</v>
       </c>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="26">
+      <c r="R32" s="24">
         <v>1.9074074074074073E-2</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="21">
-      <c r="A33" s="29">
+      <c r="A33" s="18">
         <v>6</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12">
@@ -3199,7 +3163,7 @@
         <v>0.80379999999999996</v>
       </c>
       <c r="Q33" s="12"/>
-      <c r="R33" s="24">
+      <c r="R33" s="22">
         <v>1.9074074074074073E-2</v>
       </c>
     </row>
